--- a/Suites/Pontuacoes/CONMEBOL/01_CopaAmérica_FaseEliminatorias.xlsx
+++ b/Suites/Pontuacoes/CONMEBOL/01_CopaAmérica_FaseEliminatorias.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -73,13 +73,7 @@
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
-    <t xml:space="preserve">Convidado2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bolívia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convidado1</t>
   </si>
 </sst>
 </file>
@@ -194,15 +188,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,7 +226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -257,7 +252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -283,7 +278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -309,7 +304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -335,7 +330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -361,7 +356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -387,7 +382,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -413,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -439,7 +434,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -465,81 +460,29 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>14</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="n">
         <v>-12</v>
       </c>
     </row>
